--- a/Game of Yards!.xlsx
+++ b/Game of Yards!.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="33">
   <si>
     <t>Stiff Armed and Dangerous</t>
   </si>
@@ -52,25 +52,25 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>3 - 4 - 0</t>
-  </si>
-  <si>
-    <t>4 - 3 - 0</t>
-  </si>
-  <si>
-    <t>1 - 6 - 0</t>
-  </si>
-  <si>
-    <t>2 - 5 - 0</t>
-  </si>
-  <si>
-    <t>5 - 2 - 0</t>
-  </si>
-  <si>
-    <t>0 - 7 - 0</t>
-  </si>
-  <si>
-    <t>6 - 1 - 0</t>
+    <t>4 - 4 - 0</t>
+  </si>
+  <si>
+    <t>2 - 6 - 0</t>
+  </si>
+  <si>
+    <t>3 - 5 - 0</t>
+  </si>
+  <si>
+    <t>5 - 3 - 0</t>
+  </si>
+  <si>
+    <t>6 - 2 - 0</t>
+  </si>
+  <si>
+    <t>0 - 8 - 0</t>
+  </si>
+  <si>
+    <t>1 - 7 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -86,6 +86,36 @@
   </si>
   <si>
     <t>Louie Power Index (LPI)</t>
+  </si>
+  <si>
+    <t>Change From Last Week</t>
+  </si>
+  <si>
+    <t>+8</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>+2</t>
+  </si>
+  <si>
+    <t>-7</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>+6</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-5</t>
   </si>
 </sst>
 </file>
@@ -492,7 +522,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -504,19 +534,19 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +554,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,16 +589,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -580,10 +610,10 @@
         <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
         <v>11</v>
@@ -594,34 +624,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,31 +659,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
@@ -667,28 +697,28 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
@@ -702,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -711,10 +741,10 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
         <v>11</v>
@@ -723,7 +753,7 @@
         <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
         <v>11</v>
@@ -734,34 +764,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -772,7 +802,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -787,16 +817,16 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -804,34 +834,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -866,10 +896,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -880,7 +910,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -894,10 +924,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -905,13 +935,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -919,13 +949,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -936,10 +966,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -947,13 +977,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -961,13 +991,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -978,10 +1008,10 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -992,10 +1022,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1030,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="D2">
-        <v>-1.5</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1047,16 +1077,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="D3">
-        <v>0.4000000000000004</v>
+        <v>1.6</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1064,16 +1094,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="D4">
-        <v>-0.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1081,13 +1111,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="D5">
-        <v>0.7000000000000002</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -1101,13 +1131,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D6">
-        <v>-1.3</v>
+        <v>-1.1</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1115,13 +1145,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D7">
-        <v>0.6000000000000001</v>
+        <v>-0.1000000000000001</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1135,13 +1165,13 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1149,16 +1179,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D9">
-        <v>-0.1000000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1166,16 +1196,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D10">
-        <v>-0.2999999999999998</v>
+        <v>-2.7</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1186,13 +1216,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D11">
-        <v>0.6000000000000001</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1202,13 +1232,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,36 +1248,45 @@
       <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1255,69 +1294,84 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1328,35 +1382,44 @@
         <v>-7</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Game of Yards!.xlsx
+++ b/Game of Yards!.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="31">
   <si>
     <t>Stiff Armed and Dangerous</t>
   </si>
@@ -52,25 +52,25 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>4 - 4 - 0</t>
-  </si>
-  <si>
-    <t>2 - 6 - 0</t>
-  </si>
-  <si>
-    <t>3 - 5 - 0</t>
-  </si>
-  <si>
-    <t>5 - 3 - 0</t>
-  </si>
-  <si>
-    <t>6 - 2 - 0</t>
-  </si>
-  <si>
-    <t>0 - 8 - 0</t>
-  </si>
-  <si>
-    <t>1 - 7 - 0</t>
+    <t>5 - 4 - 0</t>
+  </si>
+  <si>
+    <t>3 - 6 - 0</t>
+  </si>
+  <si>
+    <t>7 - 2 - 0</t>
+  </si>
+  <si>
+    <t>6 - 3 - 0</t>
+  </si>
+  <si>
+    <t>4 - 5 - 0</t>
+  </si>
+  <si>
+    <t>1 - 8 - 0</t>
+  </si>
+  <si>
+    <t>2 - 7 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -91,31 +91,25 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>+8</t>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>+4</t>
+  </si>
+  <si>
+    <t>+6</t>
+  </si>
+  <si>
+    <t>+2</t>
   </si>
   <si>
     <t>-1</t>
-  </si>
-  <si>
-    <t>+1</t>
-  </si>
-  <si>
-    <t>+2</t>
-  </si>
-  <si>
-    <t>-7</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>+6</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-5</t>
   </si>
 </sst>
 </file>
@@ -522,31 +516,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -563,7 +557,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -572,16 +566,16 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -595,7 +589,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -610,7 +604,7 @@
         <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -630,28 +624,28 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -659,34 +653,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -697,31 +691,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -732,31 +726,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
         <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -764,34 +758,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -799,34 +793,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -843,25 +837,25 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -896,10 +890,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -910,7 +904,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -921,13 +915,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -935,13 +929,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -949,13 +943,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -963,10 +957,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -977,13 +971,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -991,13 +985,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1005,13 +999,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1022,10 +1016,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1060,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="D2">
-        <v>0.09999999999999964</v>
+        <v>1.5</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1077,13 +1071,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="D3">
-        <v>1.6</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -1094,16 +1088,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="D4">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1114,10 +1108,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>0.5999999999999996</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -1131,10 +1125,10 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="D6">
-        <v>-1.1</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1148,13 +1142,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="D7">
-        <v>-0.1000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1162,16 +1156,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="D8">
-        <v>-0.6000000000000001</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1179,16 +1173,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D9">
-        <v>0.3999999999999999</v>
+        <v>-0.1000000000000001</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1199,13 +1193,13 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D10">
-        <v>-2.7</v>
+        <v>-2.6</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1213,16 +1207,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D11">
-        <v>-0.7999999999999998</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1260,7 +1254,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1277,10 +1271,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -1294,10 +1288,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
@@ -1311,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1328,13 +1322,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1345,13 +1339,13 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1359,16 +1353,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1376,16 +1370,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1393,16 +1387,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>-8</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1413,10 +1407,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>-12</v>
+        <v>-17</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>

--- a/Game of Yards!.xlsx
+++ b/Game of Yards!.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="34">
   <si>
     <t>Stiff Armed and Dangerous</t>
   </si>
@@ -52,25 +52,28 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>5 - 4 - 0</t>
-  </si>
-  <si>
-    <t>3 - 6 - 0</t>
-  </si>
-  <si>
-    <t>7 - 2 - 0</t>
-  </si>
-  <si>
-    <t>6 - 3 - 0</t>
-  </si>
-  <si>
-    <t>4 - 5 - 0</t>
-  </si>
-  <si>
-    <t>1 - 8 - 0</t>
-  </si>
-  <si>
-    <t>2 - 7 - 0</t>
+    <t>6 - 4 - 0</t>
+  </si>
+  <si>
+    <t>3 - 7 - 0</t>
+  </si>
+  <si>
+    <t>5 - 5 - 0</t>
+  </si>
+  <si>
+    <t>8 - 2 - 0</t>
+  </si>
+  <si>
+    <t>7 - 3 - 0</t>
+  </si>
+  <si>
+    <t>4 - 6 - 0</t>
+  </si>
+  <si>
+    <t>2 - 8 - 0</t>
+  </si>
+  <si>
+    <t>1 - 9 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -91,25 +94,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>+4</t>
+  </si>
+  <si>
+    <t>+5</t>
+  </si>
+  <si>
+    <t>+7</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>+2</t>
+  </si>
+  <si>
     <t>-3</t>
-  </si>
-  <si>
-    <t>-5</t>
-  </si>
-  <si>
-    <t>+1</t>
-  </si>
-  <si>
-    <t>+4</t>
-  </si>
-  <si>
-    <t>+6</t>
-  </si>
-  <si>
-    <t>+2</t>
-  </si>
-  <si>
-    <t>-1</t>
   </si>
 </sst>
 </file>
@@ -522,11 +531,11 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
@@ -534,13 +543,13 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -551,14 +560,14 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
@@ -566,13 +575,13 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
         <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
       </c>
       <c r="K3" t="s">
         <v>11</v>
@@ -586,31 +595,31 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -621,31 +630,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -656,13 +665,13 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -671,16 +680,16 @@
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
         <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -694,28 +703,28 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,19 +732,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -744,13 +753,13 @@
         <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,16 +767,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -776,7 +785,7 @@
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -793,34 +802,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +837,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -876,10 +885,10 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -890,10 +899,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -901,13 +910,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -915,13 +924,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -932,10 +941,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -943,13 +952,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>4.5</v>
-      </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -957,13 +966,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -971,13 +980,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -985,13 +994,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1002,7 +1011,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1016,10 +1025,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1040,13 +1049,13 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1057,13 +1066,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="D2">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1071,13 +1080,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="D3">
-        <v>0.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -1088,16 +1097,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="D4">
-        <v>2.1</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1105,16 +1114,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1122,16 +1131,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="D6">
-        <v>-0.2999999999999998</v>
+        <v>1.3</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1142,13 +1151,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1156,16 +1165,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="D8">
-        <v>-0.7999999999999998</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1173,16 +1182,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D9">
-        <v>-0.1000000000000001</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1190,13 +1199,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D10">
-        <v>-2.6</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1207,13 +1216,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D11">
-        <v>0.3999999999999999</v>
+        <v>-2.5</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1237,13 +1246,13 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1254,13 +1263,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1271,13 +1280,13 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1285,16 +1294,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1302,16 +1311,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1319,16 +1328,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1336,16 +1345,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1353,16 +1362,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1370,7 +1379,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>-6</v>
@@ -1379,7 +1388,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1387,16 +1396,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1407,13 +1416,13 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Game of Yards!.xlsx
+++ b/Game of Yards!.xlsx
@@ -52,28 +52,31 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>6 - 4 - 0</t>
-  </si>
-  <si>
-    <t>3 - 7 - 0</t>
-  </si>
-  <si>
-    <t>5 - 5 - 0</t>
-  </si>
-  <si>
-    <t>8 - 2 - 0</t>
-  </si>
-  <si>
-    <t>7 - 3 - 0</t>
-  </si>
-  <si>
-    <t>4 - 6 - 0</t>
-  </si>
-  <si>
-    <t>2 - 8 - 0</t>
-  </si>
-  <si>
-    <t>1 - 9 - 0</t>
+    <t>7 - 4 - 0</t>
+  </si>
+  <si>
+    <t>6 - 5 - 0</t>
+  </si>
+  <si>
+    <t>3 - 8 - 0</t>
+  </si>
+  <si>
+    <t>5 - 6 - 0</t>
+  </si>
+  <si>
+    <t>8 - 3 - 0</t>
+  </si>
+  <si>
+    <t>4 - 7 - 0</t>
+  </si>
+  <si>
+    <t>2 - 9 - 0</t>
+  </si>
+  <si>
+    <t>9 - 2 - 0</t>
+  </si>
+  <si>
+    <t>1 - 10 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -94,31 +97,28 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>-6</t>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>+5</t>
   </si>
   <si>
     <t>-1</t>
   </si>
   <si>
-    <t>+4</t>
-  </si>
-  <si>
-    <t>+5</t>
-  </si>
-  <si>
-    <t>+7</t>
-  </si>
-  <si>
     <t>+1</t>
   </si>
   <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>+2</t>
+    <t>0</t>
   </si>
   <si>
     <t>-3</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>-4</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -534,7 +534,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -543,13 +543,13 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -557,34 +557,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -592,10 +592,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -604,22 +604,22 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -630,31 +630,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -662,7 +662,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -674,22 +674,22 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
         <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -697,10 +697,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -709,7 +709,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
@@ -718,13 +718,13 @@
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -732,10 +732,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -744,22 +744,22 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -767,34 +767,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
       <c r="G9" t="s">
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -802,10 +802,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -814,22 +814,22 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -843,28 +843,28 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -885,10 +885,10 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -910,13 +910,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -924,13 +924,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -938,13 +938,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -952,13 +952,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -966,13 +966,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -983,7 +983,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -994,13 +994,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1008,13 +1008,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1025,7 +1025,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -1049,13 +1049,13 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1080,16 +1080,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1100,13 +1100,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="D4">
-        <v>0.7000000000000002</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1114,16 +1114,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="D5">
-        <v>-0.4000000000000004</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1131,13 +1131,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="D6">
-        <v>1.3</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -1148,16 +1148,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="D7">
-        <v>0.09999999999999964</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1185,10 +1185,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="D9">
-        <v>-0.7999999999999998</v>
+        <v>-1.5</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -1202,13 +1202,13 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="D10">
-        <v>0.7000000000000002</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1219,13 +1219,13 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D11">
-        <v>-2.5</v>
+        <v>-2.4</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1246,13 +1246,13 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1263,13 +1263,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1277,16 +1277,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1294,16 +1294,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1311,16 +1311,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1331,10 +1331,10 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
@@ -1345,13 +1345,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
@@ -1365,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -1382,10 +1382,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
@@ -1399,13 +1399,13 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1416,13 +1416,13 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>-20</v>
+        <v>-22</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Game of Yards!.xlsx
+++ b/Game of Yards!.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="35">
   <si>
     <t>Stiff Armed and Dangerous</t>
   </si>
@@ -52,31 +52,31 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>7 - 4 - 0</t>
-  </si>
-  <si>
-    <t>6 - 5 - 0</t>
-  </si>
-  <si>
-    <t>3 - 8 - 0</t>
-  </si>
-  <si>
-    <t>5 - 6 - 0</t>
-  </si>
-  <si>
-    <t>8 - 3 - 0</t>
-  </si>
-  <si>
-    <t>4 - 7 - 0</t>
-  </si>
-  <si>
-    <t>2 - 9 - 0</t>
-  </si>
-  <si>
-    <t>9 - 2 - 0</t>
-  </si>
-  <si>
-    <t>1 - 10 - 0</t>
+    <t>8 - 4 - 0</t>
+  </si>
+  <si>
+    <t>7 - 5 - 0</t>
+  </si>
+  <si>
+    <t>3 - 9 - 0</t>
+  </si>
+  <si>
+    <t>6 - 6 - 0</t>
+  </si>
+  <si>
+    <t>9 - 3 - 0</t>
+  </si>
+  <si>
+    <t>4 - 8 - 0</t>
+  </si>
+  <si>
+    <t>5 - 7 - 0</t>
+  </si>
+  <si>
+    <t>2 - 10 - 0</t>
+  </si>
+  <si>
+    <t>10 - 2 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -97,28 +97,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>+3</t>
+    <t>+4</t>
+  </si>
+  <si>
+    <t>+7</t>
+  </si>
+  <si>
+    <t>+2</t>
   </si>
   <si>
     <t>+5</t>
   </si>
   <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>+1</t>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>-2</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>-4</t>
+    <t>-6</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -534,7 +537,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -560,28 +563,28 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
@@ -595,22 +598,22 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
@@ -627,34 +630,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -668,13 +671,13 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -686,7 +689,7 @@
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
         <v>12</v>
@@ -697,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -718,10 +721,10 @@
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
@@ -735,10 +738,10 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -779,22 +782,22 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -837,34 +840,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -896,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -910,13 +913,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -924,13 +927,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -938,13 +941,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -952,13 +955,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -966,13 +969,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -980,13 +983,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -994,13 +997,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1008,13 +1011,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1025,10 +1028,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1066,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -1080,16 +1083,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1097,16 +1100,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
       <c r="D4">
-        <v>0.2000000000000002</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1114,13 +1117,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="D5">
-        <v>0.09999999999999964</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1134,13 +1137,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="D6">
-        <v>-0.2000000000000002</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1148,16 +1151,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="D7">
-        <v>0.7999999999999998</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1165,16 +1168,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
         <v>5</v>
       </c>
-      <c r="C8">
-        <v>4.6</v>
-      </c>
       <c r="D8">
-        <v>-0.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1185,10 +1188,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="D9">
-        <v>-1.5</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -1199,13 +1202,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="D10">
-        <v>0.4000000000000004</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -1219,13 +1222,13 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D11">
-        <v>-2.4</v>
+        <v>-0.1000000000000001</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1260,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -1277,13 +1280,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
@@ -1294,10 +1297,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1311,16 +1314,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1328,16 +1331,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1345,16 +1348,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1362,13 +1365,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>31</v>
@@ -1382,10 +1385,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
@@ -1416,13 +1419,13 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>-22</v>
+        <v>-28</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Game of Yards!.xlsx
+++ b/Game of Yards!.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennoni1-my.sharepoint.com/personal/louie_rodriguez_pennoni_com/Documents/Desktop/repo/FantasyFootballApp/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_17493BDB91B81D6AF743796D2653E0C36CDA8DA5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FB29241-806F-4CD9-A0AE-E984C5A49079}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -97,38 +103,38 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>+4</t>
-  </si>
-  <si>
-    <t>+7</t>
-  </si>
-  <si>
-    <t>+2</t>
-  </si>
-  <si>
-    <t>+5</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>-6</t>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +197,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -237,7 +251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,9 +283,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,6 +335,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,14 +528,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -520,7 +570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -590,7 +640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -625,7 +675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -660,7 +710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -695,7 +745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -730,7 +780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -765,7 +815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,7 +850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -835,7 +885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -876,14 +926,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -894,7 +944,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -908,7 +958,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -922,7 +972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -936,7 +986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -950,7 +1000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -964,7 +1014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -978,7 +1028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -992,7 +1042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1006,7 +1056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1020,7 +1070,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1040,14 +1090,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1061,7 +1111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1072,13 +1122,13 @@
         <v>7.9</v>
       </c>
       <c r="D2">
-        <v>-0.09999999999999964</v>
+        <v>-9.9999999999999645E-2</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1089,13 +1139,13 @@
         <v>7.2</v>
       </c>
       <c r="D3">
-        <v>0.2000000000000002</v>
+        <v>0.20000000000000021</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1106,13 +1156,13 @@
         <v>7.1</v>
       </c>
       <c r="D4">
-        <v>-0.9000000000000004</v>
+        <v>-0.90000000000000036</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1123,13 +1173,13 @@
         <v>6.6</v>
       </c>
       <c r="D5">
-        <v>-0.4000000000000004</v>
+        <v>-0.40000000000000041</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1140,13 +1190,13 @@
         <v>6.4</v>
       </c>
       <c r="D6">
-        <v>-0.5999999999999996</v>
+        <v>-0.59999999999999964</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1157,13 +1207,13 @@
         <v>6.1</v>
       </c>
       <c r="D7">
-        <v>0.09999999999999964</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1180,7 +1230,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1188,16 +1238,16 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D9">
-        <v>0.9000000000000004</v>
+        <v>0.90000000000000036</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1205,16 +1255,16 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D10">
-        <v>0.9000000000000004</v>
+        <v>0.90000000000000036</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1237,14 +1287,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1258,7 +1310,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1272,10 +1324,10 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1289,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1306,10 +1358,10 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1323,10 +1375,10 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1340,10 +1392,10 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1357,10 +1409,10 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1374,10 +1426,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1391,10 +1443,10 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1408,10 +1460,10 @@
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>

--- a/Game of Yards!.xlsx
+++ b/Game of Yards!.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennoni1-my.sharepoint.com/personal/louie_rodriguez_pennoni_com/Documents/Desktop/repo/FantasyFootballApp/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_17493BDB91B81D6AF743796D2653E0C36CDA8DA5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FB29241-806F-4CD9-A0AE-E984C5A49079}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -58,31 +52,34 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>8 - 4 - 0</t>
-  </si>
-  <si>
-    <t>7 - 5 - 0</t>
-  </si>
-  <si>
-    <t>3 - 9 - 0</t>
-  </si>
-  <si>
-    <t>6 - 6 - 0</t>
-  </si>
-  <si>
-    <t>9 - 3 - 0</t>
-  </si>
-  <si>
-    <t>4 - 8 - 0</t>
-  </si>
-  <si>
-    <t>5 - 7 - 0</t>
-  </si>
-  <si>
-    <t>2 - 10 - 0</t>
-  </si>
-  <si>
-    <t>10 - 2 - 0</t>
+    <t>9 - 4 - 0</t>
+  </si>
+  <si>
+    <t>8 - 5 - 0</t>
+  </si>
+  <si>
+    <t>4 - 9 - 0</t>
+  </si>
+  <si>
+    <t>7 - 6 - 0</t>
+  </si>
+  <si>
+    <t>3 - 10 - 0</t>
+  </si>
+  <si>
+    <t>6 - 7 - 0</t>
+  </si>
+  <si>
+    <t>5 - 8 - 0</t>
+  </si>
+  <si>
+    <t>2 - 11 - 0</t>
+  </si>
+  <si>
+    <t>11 - 2 - 0</t>
+  </si>
+  <si>
+    <t>10 - 3 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -103,38 +100,35 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓8</t>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑1</t>
   </si>
   <si>
     <t>↓2</t>
-  </si>
-  <si>
-    <t>↓6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,14 +191,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -251,7 +237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,27 +269,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,24 +303,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -528,14 +478,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -570,7 +520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,31 +531,31 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -616,7 +566,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -625,13 +575,13 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -640,7 +590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -651,7 +601,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -660,10 +610,10 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
@@ -675,77 +625,77 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -756,22 +706,22 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -780,7 +730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -788,19 +738,19 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -815,7 +765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -823,69 +773,69 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
         <v>17</v>
       </c>
-      <c r="J9" t="s">
-        <v>16</v>
-      </c>
       <c r="K9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -899,10 +849,10 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -911,13 +861,13 @@
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -926,25 +876,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -952,83 +902,83 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1036,41 +986,41 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1078,10 +1028,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1090,28 +1040,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1119,16 +1069,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D2">
-        <v>-9.9999999999999645E-2</v>
+        <v>-0.6999999999999993</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1136,33 +1086,33 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="D3">
-        <v>0.20000000000000021</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="D4">
-        <v>-0.90000000000000036</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1170,33 +1120,33 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="D5">
-        <v>-0.40000000000000041</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="D6">
-        <v>-0.59999999999999964</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1204,67 +1154,67 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="D7">
-        <v>9.9999999999999645E-2</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>4.9000000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="D9">
-        <v>0.90000000000000036</v>
+        <v>1.6</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>4.9000000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="D10">
-        <v>0.90000000000000036</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1278,7 +1228,7 @@
         <v>-0.1000000000000001</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1287,72 +1237,70 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1361,58 +1309,58 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1420,50 +1368,50 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1471,10 +1419,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>-28</v>
+        <v>-30</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>34</v>

--- a/Game of Yards!.xlsx
+++ b/Game of Yards!.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="33">
   <si>
     <t>Stiff Armed and Dangerous</t>
   </si>
@@ -52,34 +52,34 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>9 - 4 - 0</t>
-  </si>
-  <si>
-    <t>8 - 5 - 0</t>
-  </si>
-  <si>
-    <t>4 - 9 - 0</t>
-  </si>
-  <si>
-    <t>7 - 6 - 0</t>
-  </si>
-  <si>
-    <t>3 - 10 - 0</t>
-  </si>
-  <si>
-    <t>6 - 7 - 0</t>
-  </si>
-  <si>
-    <t>5 - 8 - 0</t>
-  </si>
-  <si>
-    <t>2 - 11 - 0</t>
-  </si>
-  <si>
-    <t>11 - 2 - 0</t>
-  </si>
-  <si>
-    <t>10 - 3 - 0</t>
+    <t>10 - 4 - 0</t>
+  </si>
+  <si>
+    <t>9 - 5 - 0</t>
+  </si>
+  <si>
+    <t>5 - 9 - 0</t>
+  </si>
+  <si>
+    <t>8 - 6 - 0</t>
+  </si>
+  <si>
+    <t>4 - 10 - 0</t>
+  </si>
+  <si>
+    <t>7 - 7 - 0</t>
+  </si>
+  <si>
+    <t>3 - 11 - 0</t>
+  </si>
+  <si>
+    <t>6 - 8 - 0</t>
+  </si>
+  <si>
+    <t>2 - 12 - 0</t>
+  </si>
+  <si>
+    <t>11 - 3 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -100,28 +100,22 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>↓5</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓2</t>
   </si>
 </sst>
 </file>
@@ -528,13 +522,13 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -546,10 +540,10 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
         <v>16</v>
@@ -563,13 +557,13 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -578,16 +572,16 @@
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -598,10 +592,10 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -616,10 +610,10 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
@@ -633,31 +627,31 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -668,10 +662,10 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -689,7 +683,7 @@
         <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
@@ -703,13 +697,13 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -718,13 +712,13 @@
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
@@ -770,34 +764,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -808,7 +802,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -840,34 +834,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -902,10 +896,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -913,13 +907,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -930,7 +924,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -941,13 +935,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -958,10 +952,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -972,7 +966,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -986,10 +980,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1000,7 +994,7 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>6.9</v>
+        <v>7.8</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -1014,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -1028,10 +1022,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1069,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D2">
-        <v>-0.6999999999999993</v>
+        <v>-1.199999999999999</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -1083,16 +1077,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>7.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D3">
-        <v>0.4000000000000004</v>
+        <v>-0.6999999999999993</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1100,16 +1094,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>7.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D4">
-        <v>-0.7000000000000002</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1117,16 +1111,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="D5">
-        <v>-0.7000000000000002</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1137,13 +1131,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="D6">
-        <v>-0.7999999999999998</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1154,13 +1148,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1171,13 +1165,13 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="D8">
-        <v>0.9000000000000004</v>
+        <v>1.5</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1188,10 +1182,10 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="D9">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -1211,7 +1205,7 @@
         <v>-0.4000000000000004</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1222,10 +1216,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="D11">
-        <v>-0.1000000000000001</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -1266,7 +1260,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1280,13 +1274,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -1300,10 +1294,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -1314,16 +1308,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1331,16 +1325,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1351,13 +1345,13 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1365,16 +1359,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1382,13 +1376,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
@@ -1402,13 +1396,13 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1419,13 +1413,13 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>-30</v>
+        <v>-31</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
